--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2770,17 +2770,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2789,26 +2789,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.03515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.12109375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="225.41796875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.76171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.5" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="224.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,7 +623,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentificadores</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTipoIdentificador</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1059,7 +1059,7 @@
     <t>Practitioner.identifier:rnpi.type.coding.code</t>
   </si>
   <si>
-    <t>2</t>
+    <t>13</t>
   </si>
   <si>
     <t>Practitioner.identifier:rnpi.type.coding.display</t>
@@ -1140,7 +1140,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1891,10 +1891,10 @@
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert</t>
-  </si>
-  <si>
-    <t>Cert</t>
+    <t>Practitioner.qualification:TituloProfesional</t>
+  </si>
+  <si>
+    <t>TituloProfesional</t>
   </si>
   <si>
     <t>Especificación de los Títulos o Certificados Profesionales que tiene el Prestador</t>
@@ -1903,49 +1903,49 @@
     <t>Listado de Títulos o Cetificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier.id</t>
+    <t>Practitioner.qualification:TituloProfesional.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.use</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.use</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.type</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.system</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.value</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.value</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
@@ -1957,52 +1957,52 @@
     <t>cert</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.period</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.period</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.assigner</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.code.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.code.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.system</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.system</t>
@@ -2014,13 +2014,13 @@
     <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.version</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.version</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.code</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.code</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.code</t>
@@ -2032,19 +2032,19 @@
     <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.display</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.userSelected</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.userSelected</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.text</t>
+    <t>Practitioner.qualification:TituloProfesional.code.text</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.text</t>
@@ -2053,28 +2053,28 @@
     <t>Nombre del titulo entregado por la Super Intendencia de Salud</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.issuer</t>
+    <t>Practitioner.qualification:TituloProfesional.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.issuer</t>
   </si>
   <si>
     <t>Organizacion que entrega el certificado o título</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.id</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.reference</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.reference</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.reference</t>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.type</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.type</t>
@@ -2121,7 +2121,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.identifier</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.identifier</t>
@@ -2145,7 +2145,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.display</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.display</t>
@@ -2163,10 +2163,10 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp</t>
-  </si>
-  <si>
-    <t>Esp</t>
+    <t>Practitioner.qualification:EspecialidadMedica</t>
+  </si>
+  <si>
+    <t>EspecialidadMedica</t>
   </si>
   <si>
     <t>Especificación de la o las  especialidades que posea el prestador</t>
@@ -2175,34 +2175,34 @@
     <t>Listado de especialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.value</t>
+    <t>Practitioner.qualification:EspecialidadMedica.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso esp</t>
@@ -2211,31 +2211,31 @@
     <t>esp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.system</t>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.system</t>
   </si>
   <si>
     <t>El sistema sobre el cual se verificarán las especialidades de los Prestadores</t>
@@ -2244,13 +2244,13 @@
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores. El perfil especifica  "https://api.minsal.cl/v1/catalogos/tiposEspecialidadMedica/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.display</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la especialidad</t>
@@ -2259,43 +2259,43 @@
     <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.text</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.text</t>
   </si>
   <si>
     <t>Texto libre de la especialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.display</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp</t>
-  </si>
-  <si>
-    <t>SubEsp</t>
+    <t>Practitioner.qualification:EspecialidadMedica.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.display</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad</t>
+  </si>
+  <si>
+    <t>Subespecialidad</t>
   </si>
   <si>
     <t>Especificación de la o las subespecialidades que posea el prestador</t>
@@ -2304,34 +2304,34 @@
     <t>Listado de subespecialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.value</t>
+    <t>Practitioner.qualification:Subespecialidad.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso subesp</t>
@@ -2340,43 +2340,43 @@
     <t>subesp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.system</t>
+    <t>Practitioner.qualification:Subespecialidad.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.system</t>
   </si>
   <si>
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.display</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la subespecialidad</t>
@@ -2385,37 +2385,37 @@
     <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.text</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.text</t>
   </si>
   <si>
     <t>Texto libre de la subespecialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.display</t>
+    <t>Practitioner.qualification:Subespecialidad.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -2770,7 +2770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.68359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2795,7 +2795,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.5" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="224.59375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,7 +623,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentificadores</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTipoIdentificador</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1059,7 +1059,7 @@
     <t>Practitioner.identifier:rnpi.type.coding.code</t>
   </si>
   <si>
-    <t>2</t>
+    <t>13</t>
   </si>
   <si>
     <t>Practitioner.identifier:rnpi.type.coding.display</t>
@@ -1140,7 +1140,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1891,10 +1891,10 @@
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert</t>
-  </si>
-  <si>
-    <t>Cert</t>
+    <t>Practitioner.qualification:TituloProfesional</t>
+  </si>
+  <si>
+    <t>TituloProfesional</t>
   </si>
   <si>
     <t>Especificación de los Títulos o Certificados Profesionales que tiene el Prestador</t>
@@ -1903,49 +1903,49 @@
     <t>Listado de Títulos o Cetificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.identifier.id</t>
+    <t>Practitioner.qualification:TituloProfesional.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.identifier.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.use</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.use</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.type</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.system</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.value</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.value</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.value</t>
@@ -1957,52 +1957,52 @@
     <t>cert</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.period</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.period</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.identifier.assigner</t>
+    <t>Practitioner.qualification:TituloProfesional.identifier.assigner</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.code.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.code.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.id</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.system</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.system</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.system</t>
@@ -2014,13 +2014,13 @@
     <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.version</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.version</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.code</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.code</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.code</t>
@@ -2032,19 +2032,19 @@
     <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.display</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.coding.userSelected</t>
+    <t>Practitioner.qualification:TituloProfesional.code.coding.userSelected</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.code.text</t>
+    <t>Practitioner.qualification:TituloProfesional.code.text</t>
   </si>
   <si>
     <t>Practitioner.qualification.code.text</t>
@@ -2053,28 +2053,28 @@
     <t>Nombre del titulo entregado por la Super Intendencia de Salud</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Cert.issuer</t>
+    <t>Practitioner.qualification:TituloProfesional.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:TituloProfesional.issuer</t>
   </si>
   <si>
     <t>Organizacion que entrega el certificado o título</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.id</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.id</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.id</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.extension</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.extension</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.reference</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.reference</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.reference</t>
@@ -2096,7 +2096,7 @@
 </t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.type</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.type</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.type</t>
@@ -2121,7 +2121,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.identifier</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.identifier</t>
@@ -2145,7 +2145,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Cert.issuer.display</t>
+    <t>Practitioner.qualification:TituloProfesional.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.qualification.issuer.display</t>
@@ -2163,10 +2163,10 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp</t>
-  </si>
-  <si>
-    <t>Esp</t>
+    <t>Practitioner.qualification:EspecialidadMedica</t>
+  </si>
+  <si>
+    <t>EspecialidadMedica</t>
   </si>
   <si>
     <t>Especificación de la o las  especialidades que posea el prestador</t>
@@ -2175,34 +2175,34 @@
     <t>Listado de especialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.value</t>
+    <t>Practitioner.qualification:EspecialidadMedica.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso esp</t>
@@ -2211,31 +2211,31 @@
     <t>esp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.system</t>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.system</t>
   </si>
   <si>
     <t>El sistema sobre el cual se verificarán las especialidades de los Prestadores</t>
@@ -2244,13 +2244,13 @@
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores. El perfil especifica  "https://api.minsal.cl/v1/catalogos/tiposEspecialidadMedica/"</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.coding.display</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la especialidad</t>
@@ -2259,43 +2259,43 @@
     <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.code.text</t>
+    <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.code.text</t>
   </si>
   <si>
     <t>Texto libre de la especialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:Esp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:Esp.issuer.display</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp</t>
-  </si>
-  <si>
-    <t>SubEsp</t>
+    <t>Practitioner.qualification:EspecialidadMedica.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:EspecialidadMedica.issuer.display</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad</t>
+  </si>
+  <si>
+    <t>Subespecialidad</t>
   </si>
   <si>
     <t>Especificación de la o las subespecialidades que posea el prestador</t>
@@ -2304,34 +2304,34 @@
     <t>Listado de subespecialidades que posee el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.modifierExtension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.use</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.system</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.value</t>
+    <t>Practitioner.qualification:Subespecialidad.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.modifierExtension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.value</t>
   </si>
   <si>
     <t>Valor del tipo de calificación, en este caso subesp</t>
@@ -2340,43 +2340,43 @@
     <t>subesp</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.identifier.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.system</t>
+    <t>Practitioner.qualification:Subespecialidad.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.system</t>
   </si>
   <si>
     <t>la url sobre la cual se encuentra el endPoint para el acceso a  los códigos de especialidades de prestadores.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.version</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.code</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.display</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.version</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.code</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.display</t>
   </si>
   <si>
     <t>Nombre de la subespecialidad</t>
@@ -2385,37 +2385,37 @@
     <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.code.text</t>
+    <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.code.text</t>
   </si>
   <si>
     <t>Texto libre de la subespecialidad del profesional</t>
   </si>
   <si>
-    <t>Practitioner.qualification:SubEsp.period</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.id</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.reference</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.type</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification:SubEsp.issuer.display</t>
+    <t>Practitioner.qualification:Subespecialidad.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -2770,7 +2770,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.68359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2795,7 +2795,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.5" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="224.59375" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8547" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8547" uniqueCount="791">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,6 +896,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -1140,7 +1143,7 @@
     <t>Practitioner.identifier:pasaporte.type.coding.code</t>
   </si>
   <si>
-    <t>5</t>
+    <t>05</t>
   </si>
   <si>
     <t>Practitioner.identifier:pasaporte.type.coding.display</t>
@@ -1209,7 +1212,7 @@
     <t>Practitioner.identifier:otro.type.coding.code</t>
   </si>
   <si>
-    <t>4</t>
+    <t>14</t>
   </si>
   <si>
     <t>Practitioner.identifier:otro.type.coding.display</t>
@@ -6625,7 +6628,7 @@
         <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>78</v>
@@ -6664,7 +6667,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6679,10 +6682,10 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -6693,10 +6696,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6722,14 +6725,14 @@
         <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6778,7 +6781,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6793,10 +6796,10 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6807,10 +6810,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6833,19 +6836,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6894,7 +6897,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6909,10 +6912,10 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6923,10 +6926,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6952,16 +6955,16 @@
         <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -7010,7 +7013,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7025,10 +7028,10 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -7039,7 +7042,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>197</v>
@@ -7068,13 +7071,13 @@
         <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>201</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>207</v>
@@ -7184,10 +7187,10 @@
         <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>210</v>
@@ -7269,7 +7272,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>216</v>
@@ -7381,7 +7384,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>224</v>
@@ -7495,13 +7498,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
@@ -7526,10 +7529,10 @@
         <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7611,7 +7614,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>167</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>173</v>
@@ -7837,7 +7840,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>178</v>
@@ -7953,7 +7956,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>188</v>
@@ -8069,7 +8072,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>245</v>
@@ -8181,7 +8184,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>247</v>
@@ -8295,7 +8298,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>249</v>
@@ -8411,7 +8414,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>259</v>
@@ -8523,7 +8526,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>261</v>
@@ -8637,7 +8640,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>263</v>
@@ -8753,7 +8756,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>272</v>
@@ -8867,7 +8870,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>280</v>
@@ -8913,7 +8916,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8952,7 +8955,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8967,10 +8970,10 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8981,10 +8984,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9010,14 +9013,14 @@
         <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -9066,7 +9069,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -9081,10 +9084,10 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -9095,10 +9098,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9121,19 +9124,19 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -9182,7 +9185,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9197,10 +9200,10 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -9211,10 +9214,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9240,16 +9243,16 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9298,7 +9301,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9313,10 +9316,10 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>197</v>
@@ -9356,13 +9359,13 @@
         <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>201</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>207</v>
@@ -9472,10 +9475,10 @@
         <v>168</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>210</v>
@@ -9557,7 +9560,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>216</v>
@@ -9669,7 +9672,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>224</v>
@@ -9783,13 +9786,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9814,10 +9817,10 @@
         <v>158</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9899,7 +9902,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>167</v>
@@ -10011,7 +10014,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>173</v>
@@ -10125,7 +10128,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>178</v>
@@ -10241,7 +10244,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>188</v>
@@ -10357,7 +10360,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>245</v>
@@ -10469,7 +10472,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>247</v>
@@ -10583,7 +10586,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>249</v>
@@ -10699,7 +10702,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>259</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>261</v>
@@ -10925,7 +10928,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>263</v>
@@ -11041,7 +11044,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>272</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>280</v>
@@ -11201,7 +11204,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -11240,7 +11243,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11255,10 +11258,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -11269,10 +11272,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11298,14 +11301,14 @@
         <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11354,7 +11357,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11369,10 +11372,10 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -11383,10 +11386,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11409,19 +11412,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11470,7 +11473,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11485,10 +11488,10 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -11499,10 +11502,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11528,16 +11531,16 @@
         <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11586,7 +11589,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11601,10 +11604,10 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>197</v>
@@ -11644,13 +11647,13 @@
         <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>201</v>
@@ -11731,7 +11734,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>207</v>
@@ -11760,10 +11763,10 @@
         <v>168</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>210</v>
@@ -11845,7 +11848,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>216</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>224</v>
@@ -12071,13 +12074,13 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>78</v>
@@ -12102,10 +12105,10 @@
         <v>158</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12187,7 +12190,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>167</v>
@@ -12299,7 +12302,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>173</v>
@@ -12413,7 +12416,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>178</v>
@@ -12529,7 +12532,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -12645,7 +12648,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>245</v>
@@ -12757,7 +12760,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>247</v>
@@ -12871,7 +12874,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>249</v>
@@ -12987,7 +12990,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>259</v>
@@ -13099,7 +13102,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>261</v>
@@ -13213,7 +13216,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>263</v>
@@ -13329,7 +13332,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>272</v>
@@ -13443,7 +13446,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>280</v>
@@ -13489,7 +13492,7 @@
         <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>78</v>
@@ -13528,7 +13531,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13543,10 +13546,10 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
@@ -13557,10 +13560,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13586,14 +13589,14 @@
         <v>168</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13642,7 +13645,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13657,10 +13660,10 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -13671,10 +13674,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13697,19 +13700,19 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13758,7 +13761,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13773,10 +13776,10 @@
         <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13787,10 +13790,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13816,16 +13819,16 @@
         <v>168</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13874,7 +13877,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13889,10 +13892,10 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13903,7 +13906,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>197</v>
@@ -13932,13 +13935,13 @@
         <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>201</v>
@@ -14019,7 +14022,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>207</v>
@@ -14048,10 +14051,10 @@
         <v>168</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>210</v>
@@ -14133,7 +14136,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>216</v>
@@ -14245,7 +14248,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>224</v>
@@ -14359,10 +14362,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14385,70 +14388,70 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14466,21 +14469,21 @@
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14503,19 +14506,19 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14564,7 +14567,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14579,13 +14582,13 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14593,10 +14596,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14705,10 +14708,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14819,10 +14822,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14848,16 +14851,16 @@
         <v>109</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14867,7 +14870,7 @@
         <v>78</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>78</v>
@@ -14885,10 +14888,10 @@
         <v>183</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14906,7 +14909,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14921,13 +14924,13 @@
         <v>101</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14935,10 +14938,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14964,16 +14967,16 @@
         <v>168</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -15022,7 +15025,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15037,10 +15040,10 @@
         <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>78</v>
@@ -15051,14 +15054,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15080,13 +15083,13 @@
         <v>168</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15136,7 +15139,7 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15151,13 +15154,13 @@
         <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -15165,10 +15168,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15194,10 +15197,10 @@
         <v>168</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15277,10 +15280,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15306,10 +15309,10 @@
         <v>134</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15387,13 +15390,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
@@ -15415,13 +15418,13 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15501,10 +15504,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15530,10 +15533,10 @@
         <v>168</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15557,7 +15560,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>78</v>
@@ -15584,7 +15587,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15613,14 +15616,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15642,13 +15645,13 @@
         <v>168</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15698,7 +15701,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15713,13 +15716,13 @@
         <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15727,10 +15730,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15756,10 +15759,10 @@
         <v>168</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15810,7 +15813,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15825,13 +15828,13 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15839,10 +15842,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15868,10 +15871,10 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15922,7 +15925,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15937,10 +15940,10 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>78</v>
@@ -15951,10 +15954,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15980,14 +15983,14 @@
         <v>217</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -16036,7 +16039,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16051,10 +16054,10 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>223</v>
@@ -16065,10 +16068,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16091,19 +16094,19 @@
         <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -16152,7 +16155,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16167,13 +16170,13 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16181,10 +16184,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16293,10 +16296,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16407,10 +16410,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16436,10 +16439,10 @@
         <v>109</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16469,10 +16472,10 @@
         <v>183</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>78</v>
@@ -16490,7 +16493,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16499,19 +16502,19 @@
         <v>89</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16519,10 +16522,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16548,16 +16551,16 @@
         <v>168</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>78</v>
@@ -16606,7 +16609,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16621,10 +16624,10 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>215</v>
@@ -16635,10 +16638,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16664,16 +16667,16 @@
         <v>109</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>78</v>
@@ -16701,10 +16704,10 @@
         <v>183</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16722,7 +16725,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16737,13 +16740,13 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16751,10 +16754,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16777,16 +16780,16 @@
         <v>90</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16836,7 +16839,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16865,10 +16868,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16894,10 +16897,10 @@
         <v>217</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16948,7 +16951,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16966,7 +16969,7 @@
         <v>132</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>223</v>
@@ -16977,10 +16980,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17003,19 +17006,19 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -17064,7 +17067,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17079,13 +17082,13 @@
         <v>101</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -17093,10 +17096,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17122,14 +17125,14 @@
         <v>109</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17157,10 +17160,10 @@
         <v>183</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>78</v>
@@ -17178,7 +17181,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17193,13 +17196,13 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17207,10 +17210,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17233,17 +17236,17 @@
         <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -17292,7 +17295,7 @@
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17307,13 +17310,13 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>78</v>
@@ -17321,10 +17324,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17347,17 +17350,17 @@
         <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>78</v>
@@ -17406,7 +17409,7 @@
         <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17424,10 +17427,10 @@
         <v>78</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -17435,10 +17438,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17461,13 +17464,13 @@
         <v>78</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17506,10 +17509,10 @@
         <v>78</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC129" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AD129" t="s" s="2">
         <v>78</v>
@@ -17518,7 +17521,7 @@
         <v>138</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17533,13 +17536,13 @@
         <v>101</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17547,10 +17550,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17659,10 +17662,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17773,14 +17776,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -17802,10 +17805,10 @@
         <v>134</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>154</v>
@@ -17860,7 +17863,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17889,10 +17892,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17918,14 +17921,14 @@
         <v>158</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17974,7 +17977,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17992,7 +17995,7 @@
         <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>78</v>
@@ -18003,10 +18006,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18032,10 +18035,10 @@
         <v>189</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -18062,13 +18065,13 @@
         <v>78</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -18086,7 +18089,7 @@
         <v>78</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>89</v>
@@ -18104,10 +18107,10 @@
         <v>78</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>78</v>
@@ -18115,10 +18118,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18144,14 +18147,14 @@
         <v>217</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>78</v>
@@ -18200,7 +18203,7 @@
         <v>78</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18218,10 +18221,10 @@
         <v>78</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>78</v>
@@ -18229,10 +18232,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18258,10 +18261,10 @@
         <v>225</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18312,7 +18315,7 @@
         <v>78</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18330,7 +18333,7 @@
         <v>78</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>78</v>
@@ -18341,13 +18344,13 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D137" t="s" s="2">
         <v>78</v>
@@ -18369,13 +18372,13 @@
         <v>78</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18426,7 +18429,7 @@
         <v>78</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18441,13 +18444,13 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>78</v>
@@ -18455,10 +18458,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18567,10 +18570,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18681,14 +18684,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18710,10 +18713,10 @@
         <v>134</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>154</v>
@@ -18768,7 +18771,7 @@
         <v>78</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18797,10 +18800,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18826,14 +18829,14 @@
         <v>158</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>78</v>
@@ -18882,7 +18885,7 @@
         <v>78</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18900,7 +18903,7 @@
         <v>78</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>78</v>
@@ -18911,10 +18914,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19023,10 +19026,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19137,10 +19140,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19253,10 +19256,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19369,10 +19372,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19485,10 +19488,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19514,10 +19517,10 @@
         <v>168</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>210</v>
@@ -19531,7 +19534,7 @@
         <v>78</v>
       </c>
       <c r="S147" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="T147" t="s" s="2">
         <v>211</v>
@@ -19599,10 +19602,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19711,10 +19714,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19825,10 +19828,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19854,10 +19857,10 @@
         <v>189</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19884,13 +19887,13 @@
         <v>78</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>78</v>
@@ -19908,7 +19911,7 @@
         <v>78</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>89</v>
@@ -19926,10 +19929,10 @@
         <v>78</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>78</v>
@@ -19937,10 +19940,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20049,10 +20052,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20163,10 +20166,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20279,10 +20282,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20391,10 +20394,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20505,10 +20508,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20534,10 +20537,10 @@
         <v>103</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>266</v>
@@ -20621,10 +20624,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20735,10 +20738,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20764,10 +20767,10 @@
         <v>109</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20820,7 +20823,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -20835,10 +20838,10 @@
         <v>101</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>78</v>
@@ -20849,10 +20852,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20878,14 +20881,14 @@
         <v>168</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>78</v>
@@ -20934,7 +20937,7 @@
         <v>78</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -20949,10 +20952,10 @@
         <v>101</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>78</v>
@@ -20963,10 +20966,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20989,19 +20992,19 @@
         <v>90</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>78</v>
@@ -21050,7 +21053,7 @@
         <v>78</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21065,10 +21068,10 @@
         <v>101</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>78</v>
@@ -21079,10 +21082,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21108,16 +21111,16 @@
         <v>168</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>78</v>
@@ -21166,7 +21169,7 @@
         <v>78</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21181,10 +21184,10 @@
         <v>101</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>78</v>
@@ -21195,10 +21198,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21224,14 +21227,14 @@
         <v>217</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>78</v>
@@ -21280,7 +21283,7 @@
         <v>78</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -21298,10 +21301,10 @@
         <v>78</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21309,10 +21312,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21338,10 +21341,10 @@
         <v>225</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21392,7 +21395,7 @@
         <v>78</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
@@ -21410,7 +21413,7 @@
         <v>78</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>78</v>
@@ -21421,10 +21424,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21533,10 +21536,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21647,10 +21650,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21676,13 +21679,13 @@
         <v>168</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -21732,7 +21735,7 @@
         <v>78</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -21741,7 +21744,7 @@
         <v>89</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>101</v>
@@ -21761,10 +21764,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21790,13 +21793,13 @@
         <v>103</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -21825,10 +21828,10 @@
         <v>241</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>78</v>
@@ -21846,7 +21849,7 @@
         <v>78</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -21875,10 +21878,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21904,13 +21907,13 @@
         <v>158</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
@@ -21960,7 +21963,7 @@
         <v>78</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -21978,7 +21981,7 @@
         <v>78</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>78</v>
@@ -21989,10 +21992,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22018,13 +22021,13 @@
         <v>168</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22074,7 +22077,7 @@
         <v>78</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -22103,13 +22106,13 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>78</v>
@@ -22131,13 +22134,13 @@
         <v>78</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -22188,7 +22191,7 @@
         <v>78</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
@@ -22203,13 +22206,13 @@
         <v>101</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>78</v>
@@ -22217,10 +22220,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22329,10 +22332,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22443,14 +22446,14 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
@@ -22472,10 +22475,10 @@
         <v>134</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N173" t="s" s="2">
         <v>154</v>
@@ -22530,7 +22533,7 @@
         <v>78</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>79</v>
@@ -22559,10 +22562,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22588,14 +22591,14 @@
         <v>158</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>78</v>
@@ -22644,7 +22647,7 @@
         <v>78</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>79</v>
@@ -22662,7 +22665,7 @@
         <v>78</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>78</v>
@@ -22673,10 +22676,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22785,10 +22788,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22899,10 +22902,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23015,10 +23018,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23131,10 +23134,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23247,10 +23250,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23276,10 +23279,10 @@
         <v>168</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>210</v>
@@ -23293,7 +23296,7 @@
         <v>78</v>
       </c>
       <c r="S180" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T180" t="s" s="2">
         <v>211</v>
@@ -23361,10 +23364,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23473,10 +23476,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23587,10 +23590,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23616,10 +23619,10 @@
         <v>189</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23646,13 +23649,13 @@
         <v>78</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>78</v>
@@ -23670,7 +23673,7 @@
         <v>78</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>89</v>
@@ -23688,10 +23691,10 @@
         <v>78</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>78</v>
@@ -23699,10 +23702,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23811,10 +23814,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23925,10 +23928,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24041,10 +24044,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24153,10 +24156,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24267,10 +24270,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24296,10 +24299,10 @@
         <v>103</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>266</v>
@@ -24383,10 +24386,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -24497,10 +24500,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24582,7 +24585,7 @@
         <v>78</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -24597,10 +24600,10 @@
         <v>101</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -24611,10 +24614,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24640,14 +24643,14 @@
         <v>168</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>78</v>
@@ -24696,7 +24699,7 @@
         <v>78</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -24711,10 +24714,10 @@
         <v>101</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>78</v>
@@ -24725,10 +24728,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24751,19 +24754,19 @@
         <v>90</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>78</v>
@@ -24812,7 +24815,7 @@
         <v>78</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>79</v>
@@ -24827,10 +24830,10 @@
         <v>101</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>78</v>
@@ -24841,10 +24844,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -24870,16 +24873,16 @@
         <v>168</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>78</v>
@@ -24928,7 +24931,7 @@
         <v>78</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -24943,10 +24946,10 @@
         <v>101</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>78</v>
@@ -24957,10 +24960,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -24986,14 +24989,14 @@
         <v>217</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>78</v>
@@ -25042,7 +25045,7 @@
         <v>78</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>79</v>
@@ -25060,10 +25063,10 @@
         <v>78</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>78</v>
@@ -25071,10 +25074,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25100,10 +25103,10 @@
         <v>225</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -25154,7 +25157,7 @@
         <v>78</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>79</v>
@@ -25172,7 +25175,7 @@
         <v>78</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>78</v>
@@ -25183,10 +25186,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25295,10 +25298,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -25409,10 +25412,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -25438,13 +25441,13 @@
         <v>168</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -25494,7 +25497,7 @@
         <v>78</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -25503,7 +25506,7 @@
         <v>89</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>101</v>
@@ -25523,10 +25526,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -25552,13 +25555,13 @@
         <v>103</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -25587,10 +25590,10 @@
         <v>241</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>78</v>
@@ -25608,7 +25611,7 @@
         <v>78</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -25637,10 +25640,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -25666,13 +25669,13 @@
         <v>158</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -25722,7 +25725,7 @@
         <v>78</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>79</v>
@@ -25740,7 +25743,7 @@
         <v>78</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>78</v>
@@ -25751,10 +25754,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -25780,13 +25783,13 @@
         <v>168</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
@@ -25836,7 +25839,7 @@
         <v>78</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>79</v>
@@ -25865,13 +25868,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>78</v>
@@ -25893,13 +25896,13 @@
         <v>78</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -25950,7 +25953,7 @@
         <v>78</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>79</v>
@@ -25965,13 +25968,13 @@
         <v>101</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>78</v>
@@ -25979,10 +25982,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26091,10 +26094,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26205,14 +26208,14 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
@@ -26234,10 +26237,10 @@
         <v>134</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N206" t="s" s="2">
         <v>154</v>
@@ -26292,7 +26295,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -26321,10 +26324,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -26350,14 +26353,14 @@
         <v>158</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>78</v>
@@ -26406,7 +26409,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -26424,7 +26427,7 @@
         <v>78</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>78</v>
@@ -26435,10 +26438,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -26547,10 +26550,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -26661,10 +26664,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -26777,10 +26780,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -26893,10 +26896,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27009,10 +27012,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27038,10 +27041,10 @@
         <v>168</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N213" t="s" s="2">
         <v>210</v>
@@ -27055,7 +27058,7 @@
         <v>78</v>
       </c>
       <c r="S213" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>211</v>
@@ -27123,10 +27126,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27235,10 +27238,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -27349,10 +27352,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -27378,10 +27381,10 @@
         <v>189</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -27408,13 +27411,13 @@
         <v>78</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>78</v>
@@ -27432,7 +27435,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>89</v>
@@ -27450,10 +27453,10 @@
         <v>78</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>78</v>
@@ -27461,10 +27464,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -27573,10 +27576,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -27687,10 +27690,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -27803,10 +27806,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -27915,10 +27918,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28029,10 +28032,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28058,10 +28061,10 @@
         <v>103</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>266</v>
@@ -28145,10 +28148,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28259,10 +28262,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -28344,7 +28347,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -28359,10 +28362,10 @@
         <v>101</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>78</v>
@@ -28373,10 +28376,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -28402,14 +28405,14 @@
         <v>168</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>78</v>
@@ -28458,7 +28461,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -28473,10 +28476,10 @@
         <v>101</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>78</v>
@@ -28487,10 +28490,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -28513,19 +28516,19 @@
         <v>90</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>78</v>
@@ -28574,7 +28577,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>
@@ -28589,10 +28592,10 @@
         <v>101</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>78</v>
@@ -28603,10 +28606,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -28632,16 +28635,16 @@
         <v>168</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>78</v>
@@ -28690,7 +28693,7 @@
         <v>78</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>79</v>
@@ -28705,10 +28708,10 @@
         <v>101</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>78</v>
@@ -28719,10 +28722,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -28748,14 +28751,14 @@
         <v>217</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>78</v>
@@ -28804,7 +28807,7 @@
         <v>78</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>79</v>
@@ -28822,10 +28825,10 @@
         <v>78</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>78</v>
@@ -28833,10 +28836,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -28862,10 +28865,10 @@
         <v>225</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -28916,7 +28919,7 @@
         <v>78</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>79</v>
@@ -28934,7 +28937,7 @@
         <v>78</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>78</v>
@@ -28945,10 +28948,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29057,10 +29060,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29171,10 +29174,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -29200,13 +29203,13 @@
         <v>168</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -29256,7 +29259,7 @@
         <v>78</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>79</v>
@@ -29265,7 +29268,7 @@
         <v>89</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>101</v>
@@ -29285,10 +29288,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -29314,13 +29317,13 @@
         <v>103</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
@@ -29349,10 +29352,10 @@
         <v>241</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>78</v>
@@ -29370,7 +29373,7 @@
         <v>78</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>79</v>
@@ -29399,10 +29402,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -29428,13 +29431,13 @@
         <v>158</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
@@ -29484,7 +29487,7 @@
         <v>78</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>79</v>
@@ -29502,7 +29505,7 @@
         <v>78</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>78</v>
@@ -29513,10 +29516,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -29542,13 +29545,13 @@
         <v>168</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
@@ -29598,7 +29601,7 @@
         <v>78</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>79</v>
@@ -29627,10 +29630,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -29656,16 +29659,16 @@
         <v>189</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>78</v>
@@ -29714,7 +29717,7 @@
         <v>78</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>79</v>
@@ -29729,13 +29732,13 @@
         <v>101</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AM236" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AN236" t="s" s="2">
         <v>78</v>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CorePrestadorCl.xlsx
+++ b/output/StructureDefinition-CorePrestadorCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
